--- a/Import_Inventory/11.1-4 คลังวัตถุดิบ Supplier-C.xlsx
+++ b/Import_Inventory/11.1-4 คลังวัตถุดิบ Supplier-C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>partner_id</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>NMA02-205-GF50#10</t>
-  </si>
-  <si>
-    <t>NMA01-H03-GT12002400x15</t>
   </si>
   <si>
     <t>date</t>
@@ -124,12 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -437,12 +437,15 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
@@ -477,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
@@ -488,7 +491,7 @@
         <v>45991</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>45991</v>
@@ -523,7 +526,7 @@
         <v>45991</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>45991</v>
@@ -558,7 +561,7 @@
         <v>45991</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>45991</v>
@@ -593,7 +596,7 @@
         <v>45991</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>45991</v>
@@ -628,7 +631,7 @@
         <v>45991</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>45991</v>
@@ -663,7 +666,7 @@
         <v>45991</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>45991</v>
@@ -698,7 +701,7 @@
         <v>45991</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>45991</v>
@@ -733,7 +736,7 @@
         <v>45991</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>45991</v>
@@ -768,7 +771,7 @@
         <v>45991</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>45991</v>
@@ -779,8 +782,8 @@
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
+      <c r="G10" s="5">
+        <v>403030003</v>
       </c>
       <c r="H10" s="4">
         <v>5</v>
@@ -803,7 +806,7 @@
         <v>45991</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>45991</v>
